--- a/平成31年度/シースリーカップ/6.大会当日使用/c3cup 頂き物リスト.xlsx
+++ b/平成31年度/シースリーカップ/6.大会当日使用/c3cup 頂き物リスト.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\6.大会当日使用\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="48" windowWidth="15576" windowHeight="8508"/>
+    <workbookView xWindow="480" yWindow="45" windowWidth="15570" windowHeight="8505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>チーム名</t>
     <rPh sb="3" eb="4">
@@ -32,181 +37,18 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2018シースリーカップ　いただき物リスト</t>
+    <t>2019シースリーカップ　いただき物リスト</t>
     <rPh sb="17" eb="18">
       <t>モノ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
-  <si>
-    <t>見附ブレイブアローズ</t>
-    <rPh sb="0" eb="2">
-      <t>ミツケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>上越南ミニバス教室</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウエツ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ミナミ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>キョウシツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巻ジャスティス</t>
-    <rPh sb="0" eb="1">
-      <t>マキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アクエリアス　2Ｌ×6本入り</t>
-    <rPh sb="11" eb="12">
-      <t>ホン</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>イ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>沼垂鏡太</t>
-    <rPh sb="0" eb="2">
-      <t>ヌッタリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カガミ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フト</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>味噌漬けセット</t>
-    <rPh sb="0" eb="2">
-      <t>ミソ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ヅ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>沼田シリウス</t>
-    <rPh sb="0" eb="2">
-      <t>ヌマタ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>花クッキー詰合せ</t>
-    <rPh sb="0" eb="1">
-      <t>ハナ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ツメアワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>清酒（４合瓶）</t>
-    <rPh sb="0" eb="2">
-      <t>セイシュ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>樫の木お菓子詰合せ</t>
-    <rPh sb="0" eb="1">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>キ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>カシ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ツメアワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>七福神せんべい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>巻ジャスティス 　関森コーチ</t>
-    <rPh sb="0" eb="1">
-      <t>マキ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>セキモリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>懇親会会場にて</t>
-    <rPh sb="0" eb="2">
-      <t>コンシン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カイジョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>沼垂鏡太　　羽田コーチ</t>
-    <rPh sb="0" eb="2">
-      <t>ヌッタリ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カガミ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>フト</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ハダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>遠藤大樹</t>
-    <rPh sb="0" eb="2">
-      <t>エンドウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ダイキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>清酒（一升瓶）</t>
-    <rPh sb="0" eb="2">
-      <t>セイシュ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>イッショウビン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -300,6 +142,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -347,7 +192,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -379,9 +224,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -413,6 +259,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -588,26 +435,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="34.77734375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="49.44140625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="34.75" style="2" customWidth="1"/>
+    <col min="2" max="2" width="49.5" style="2" customWidth="1"/>
     <col min="3" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="39" customHeight="1">
+    <row r="3" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -615,133 +460,79 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="39" customHeight="1">
-      <c r="A4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="39" customHeight="1">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="39" customHeight="1">
-      <c r="A6" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="39" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="39" customHeight="1">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="39" customHeight="1">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="39" customHeight="1">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="39" customHeight="1">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="39" customHeight="1">
-      <c r="A12" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="39" customHeight="1">
-      <c r="A13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="39" customHeight="1">
+    <row r="4" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+    </row>
+    <row r="7" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+    </row>
+    <row r="8" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+    </row>
+    <row r="13" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" ht="39" customHeight="1">
-      <c r="A15" s="4" t="s">
-        <v>15</v>
-      </c>
+    <row r="15" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="39" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="39" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="39" customHeight="1">
-      <c r="A18" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="39" customHeight="1">
+    <row r="16" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+    </row>
+    <row r="17" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+    </row>
+    <row r="18" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+    </row>
+    <row r="19" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
     </row>
-    <row r="20" spans="1:2" ht="39" customHeight="1"/>
-    <row r="21" spans="1:2" ht="39" customHeight="1"/>
-    <row r="22" spans="1:2" ht="39" customHeight="1"/>
-    <row r="23" spans="1:2" ht="39" customHeight="1"/>
-    <row r="24" spans="1:2" ht="39" customHeight="1"/>
-    <row r="25" spans="1:2" ht="39" customHeight="1"/>
-    <row r="26" spans="1:2" ht="39" customHeight="1"/>
-    <row r="27" spans="1:2" ht="39" customHeight="1"/>
-    <row r="28" spans="1:2" ht="39" customHeight="1"/>
+    <row r="20" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="23" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="24" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="25" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="28" spans="1:2" ht="39" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -750,12 +541,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -763,12 +554,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
